--- a/NPV_Statitical Anlysis of Diabetes Dataset/Book1.xlsx
+++ b/NPV_Statitical Anlysis of Diabetes Dataset/Book1.xlsx
@@ -1,49 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\MTech\Pytech\Git_Assignment\PES_MTech_Assignments\NPV_Statitical Anlysis of Diabetes Dataset\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F79869-2A32-405F-872B-1EB32EB56FC4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="16275" windowHeight="6210"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18470" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
-  <si>
-    <t>Number of times pregnant                                                    111</t>
-  </si>
-  <si>
-    <t>Plasma glucose concentration a 2 hours in an oral glucose tolerance test      5</t>
-  </si>
-  <si>
-    <t>Diastolic blood pressure (mm Hg)                                             35</t>
-  </si>
-  <si>
-    <t>Triceps skin fold thickness (mm)                                            227</t>
-  </si>
-  <si>
-    <t>2-Hour serum insulin (mu U/ml)                                              374</t>
-  </si>
-  <si>
-    <t>Body mass index (weight in kg/(height in m)^2)                               11</t>
-  </si>
-  <si>
-    <t>Diabetes pedigree function                                                    0</t>
-  </si>
-  <si>
-    <t>Age (years)                                                                   0</t>
-  </si>
-  <si>
-    <t>Class variable                                                              500</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>Column</t>
   </si>
@@ -63,20 +50,80 @@
     <t>Percentage</t>
   </si>
   <si>
-    <t>Decission</t>
-  </si>
-  <si>
     <t>Drop</t>
   </si>
   <si>
-    <t>Replace Median/Mean</t>
+    <t xml:space="preserve">Number of times pregnant </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plasma glucose concentration a 2 hours in an oral glucose tolerance test </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diastolic blood pressure (mm Hg)                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Triceps skin fold thickness (mm)                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-Hour serum insulin (mu U/ml)                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Body mass index (weight in kg/(height in m)^2)                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diabetes pedigree function                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age (years)                                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class variable                                                     </t>
+  </si>
+  <si>
+    <t>Alias</t>
+  </si>
+  <si>
+    <t>Plasma_Glucose</t>
+  </si>
+  <si>
+    <t>Blood_Pressure</t>
+  </si>
+  <si>
+    <t>Tricep_Skin_Thickness</t>
+  </si>
+  <si>
+    <t>Serum_Insulin</t>
+  </si>
+  <si>
+    <t>BMI</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>No_Times_Pregnant</t>
+  </si>
+  <si>
+    <t>Replace with Median/Mean</t>
+  </si>
+  <si>
+    <t>Replace  with Median/Mean</t>
+  </si>
+  <si>
+    <t>Decision</t>
+  </si>
+  <si>
+    <t>Pedigree</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,12 +155,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -128,7 +169,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -136,20 +177,58 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -160,6 +239,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -208,7 +290,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -241,9 +323,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -276,6 +375,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -451,197 +567,238 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="106.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.6328125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="15" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6328125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="24.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5">
+        <v>111</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5">
+        <v>5</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="10">
+        <f>C3/768</f>
+        <v>6.510416666666667E-3</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C4" s="5">
+        <v>35</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="10">
+        <f t="shared" ref="E4:E7" si="0">C4/768</f>
+        <v>4.5572916666666664E-2</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>111</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="5">
-        <f>B3/768</f>
-        <v>6.510416666666667E-3</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>35</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="5">
-        <f t="shared" ref="D4:D7" si="0">B4/768</f>
-        <v>4.5572916666666664E-2</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="C5" s="5">
+        <v>227</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>227</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="5">
+      <c r="E5" s="10">
         <f t="shared" si="0"/>
         <v>0.29557291666666669</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
+      <c r="F5" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5">
         <v>374</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="5">
+      <c r="D6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="10">
         <f t="shared" si="0"/>
         <v>0.48697916666666669</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
+      <c r="F6" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="5">
         <v>11</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="D7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="10">
         <f t="shared" si="0"/>
         <v>1.4322916666666666E-2</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="F7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+    </row>
+    <row r="8" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="5">
         <v>0</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
+      <c r="D8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="5">
         <v>0</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
+      <c r="D9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="5">
         <v>500</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="D10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
